--- a/uploads/exemplo_geracao.xlsx
+++ b/uploads/exemplo_geracao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF334F2-C3E7-4608-B31A-7171DD4CC860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E262173-4F8B-4F4E-AC5B-1A5A56115F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t>data</t>
   </si>
@@ -116,6 +116,885 @@
   </si>
   <si>
     <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>2024-07-04</t>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>2024-07-06</t>
+  </si>
+  <si>
+    <t>2024-07-07</t>
+  </si>
+  <si>
+    <t>2024-07-08</t>
+  </si>
+  <si>
+    <t>2024-07-09</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-07-16</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>2024-07-19</t>
+  </si>
+  <si>
+    <t>2024-07-20</t>
+  </si>
+  <si>
+    <t>2024-07-21</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>2024-07-23</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>2024-07-26</t>
+  </si>
+  <si>
+    <t>2024-07-27</t>
+  </si>
+  <si>
+    <t>2024-07-28</t>
+  </si>
+  <si>
+    <t>2024-07-29</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+  </si>
+  <si>
+    <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>2024-08-03</t>
+  </si>
+  <si>
+    <t>2024-08-04</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-08-06</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>2024-08-08</t>
+  </si>
+  <si>
+    <t>2024-08-09</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>2024-08-17</t>
+  </si>
+  <si>
+    <t>2024-08-18</t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>2024-08-20</t>
+  </si>
+  <si>
+    <t>2024-08-21</t>
+  </si>
+  <si>
+    <t>2024-08-22</t>
+  </si>
+  <si>
+    <t>2024-08-23</t>
+  </si>
+  <si>
+    <t>2024-08-24</t>
+  </si>
+  <si>
+    <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-08-27</t>
+  </si>
+  <si>
+    <t>2024-08-28</t>
+  </si>
+  <si>
+    <t>2024-08-29</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
+  </si>
+  <si>
+    <t>2024-08-31</t>
+  </si>
+  <si>
+    <t>2024-09-01</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>2024-09-08</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>2024-09-15</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>2024-09-17</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>2024-09-22</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
+  </si>
+  <si>
+    <t>2024-09-28</t>
+  </si>
+  <si>
+    <t>2024-09-29</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>2024-10-06</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>2024-10-12</t>
+  </si>
+  <si>
+    <t>2024-10-13</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>2024-10-17</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>2024-10-19</t>
+  </si>
+  <si>
+    <t>2024-10-20</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>2024-10-24</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>2024-10-26</t>
+  </si>
+  <si>
+    <t>2024-10-27</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-10-29</t>
+  </si>
+  <si>
+    <t>2024-10-30</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>2024-11-02</t>
+  </si>
+  <si>
+    <t>2024-11-03</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>2024-11-06</t>
+  </si>
+  <si>
+    <t>2024-11-07</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>2024-11-09</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>2024-11-11</t>
+  </si>
+  <si>
+    <t>2024-11-12</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>2024-11-14</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>2024-11-23</t>
+  </si>
+  <si>
+    <t>2024-11-24</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>2024-11-26</t>
+  </si>
+  <si>
+    <t>2024-11-27</t>
+  </si>
+  <si>
+    <t>2024-11-28</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
+  </si>
+  <si>
+    <t>2024-11-30</t>
+  </si>
+  <si>
+    <t>2024-12-01</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>2024-12-03</t>
+  </si>
+  <si>
+    <t>2024-12-04</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>2024-12-06</t>
+  </si>
+  <si>
+    <t>2024-12-07</t>
+  </si>
+  <si>
+    <t>2024-12-08</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>2024-12-14</t>
+  </si>
+  <si>
+    <t>2024-12-15</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-12-17</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>2024-12-19</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>2024-12-22</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2024-12-24</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>2024-12-26</t>
+  </si>
+  <si>
+    <t>2024-12-27</t>
+  </si>
+  <si>
+    <t>2024-12-28</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>2025-01-02</t>
+  </si>
+  <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>2025-01-04</t>
+  </si>
+  <si>
+    <t>2025-01-05</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2025-01-07</t>
+  </si>
+  <si>
+    <t>2025-01-08</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>2025-01-11</t>
+  </si>
+  <si>
+    <t>2025-01-12</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>2025-01-14</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2025-01-18</t>
+  </si>
+  <si>
+    <t>2025-01-19</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>2025-01-22</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>2025-01-26</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>2025-01-30</t>
+  </si>
+  <si>
+    <t>2025-01-31</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>2025-02-02</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-01</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-03-14</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
+    <t>2025-03-17</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>2025-03-22</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-05-03</t>
+  </si>
+  <si>
+    <t>2025-05-04</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-05-08</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>2025-05-11</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>2025-05-13</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-05-17</t>
+  </si>
+  <si>
+    <t>2025-05-18</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
   </si>
 </sst>
 </file>
@@ -209,7 +1088,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="98">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -276,13 +1162,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -297,6 +1176,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -304,20 +1190,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -339,6 +1211,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -353,13 +1239,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -389,6 +1268,496 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -706,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="B306" sqref="B306:B324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,264 +2096,2614 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>7440</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>7250</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>7277.1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5340</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5230</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5940</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4172.3</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5900</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5470</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>4830</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>6860</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4">
-        <v>7010</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <v>5110</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4">
-        <v>4200</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4">
-        <v>4950</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3800</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4">
-        <v>5030</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4">
-        <v>4590</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4">
-        <v>5970</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4">
-        <v>5950</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4">
-        <v>6800</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4">
-        <v>6190</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4">
-        <v>5830</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5870</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4">
-        <v>5360</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4">
-        <v>6230</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4">
-        <v>4520</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4">
-        <v>3870</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4">
-        <v>5060</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2">
+        <v>379.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2">
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2">
+        <v>382.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2">
+        <v>362.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2">
+        <v>304.10000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="2">
+        <v>412.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2">
+        <v>387.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="2">
+        <v>404.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="2">
+        <v>390.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="2">
+        <v>381.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="2">
+        <v>415.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2">
+        <v>408.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="2">
+        <v>360.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="2">
+        <v>393.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="2">
+        <v>402.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="2">
+        <v>410.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="2">
+        <v>416.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="2">
+        <v>422.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="2">
+        <v>415.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="2">
+        <v>418.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2">
+        <v>411.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="2">
+        <v>385.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="2">
+        <v>335.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="2">
+        <v>333.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="2">
+        <v>341.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="2">
+        <v>361.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="2">
+        <v>359.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="2">
+        <v>414.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="2">
+        <v>418.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="2">
+        <v>407.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="2">
+        <v>400.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="2">
+        <v>394.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="2">
+        <v>369.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="2">
+        <v>368.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="2">
+        <v>371.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="2">
+        <v>393.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="2">
+        <v>411.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="2">
+        <v>415.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="2">
+        <v>414.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="2">
+        <v>409.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="2">
+        <v>389.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="2">
+        <v>401.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="2">
+        <v>408.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="2">
+        <v>317.10000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="2">
+        <v>381.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="2">
+        <v>387.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="2">
+        <v>397.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="2">
+        <v>400.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="2">
+        <v>392.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="2">
+        <v>388.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="2">
+        <v>391.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="2">
+        <v>379.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="2">
+        <v>397.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="2">
+        <v>397.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="2">
+        <v>378.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="2">
+        <v>354.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="2">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="2">
+        <v>386.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="2">
+        <v>410.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="2">
+        <v>405.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" s="2">
+        <v>379.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="2">
+        <v>365.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="2">
+        <v>340.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="2">
+        <v>370.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" s="2">
+        <v>342.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="2">
+        <v>226.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="2">
+        <v>291.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="2">
+        <v>302.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="2">
+        <v>321.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="2">
+        <v>276.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="2">
+        <v>310.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B107" s="2">
+        <v>168.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="2">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" s="2">
+        <v>198.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="2">
+        <v>228.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" s="2">
+        <v>278.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="2">
+        <v>300.89999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="2">
+        <v>288.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" s="2">
+        <v>294.39999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="2">
+        <v>209.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="2">
+        <v>185.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" s="2">
+        <v>266.60000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" s="2">
+        <v>215.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121" s="2">
+        <v>279.89999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="2">
+        <v>226.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" s="2">
+        <v>190.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B124" s="2">
+        <v>188.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" s="2">
+        <v>204.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="2">
+        <v>194.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" s="2">
+        <v>261.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="2">
+        <v>388.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B129" s="2">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" s="2">
+        <v>280.89999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B131" s="2">
+        <v>194.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B133" s="2">
+        <v>179.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B134" s="2">
+        <v>295.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B135" s="2">
+        <v>288.60000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B136" s="2">
+        <v>349.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B137" s="2">
+        <v>257.7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138" s="2">
+        <v>170.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="2">
+        <v>137.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="2">
+        <v>134.19999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B142" s="2">
+        <v>246.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B143" s="2">
+        <v>279.39999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B144" s="2">
+        <v>280.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B145" s="2">
+        <v>274.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B146" s="2">
+        <v>272.39999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B147" s="2">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B148" s="2">
+        <v>259.10000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" s="2">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B150" s="2">
+        <v>222.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B151" s="2">
+        <v>267.10000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B152" s="2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B153" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B154" s="2">
+        <v>309.10000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B155" s="2">
+        <v>290.10000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B156" s="2">
+        <v>239.8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B157" s="2">
+        <v>233.1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B158" s="2">
+        <v>261.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B159" s="2">
+        <v>310.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B160" s="2">
+        <v>459.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B161" s="2">
+        <v>401.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B162" s="2">
+        <v>387.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B163" s="2">
+        <v>285.89999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B164" s="2">
+        <v>386.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B165" s="2">
+        <v>266.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B166" s="2">
+        <v>193.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B167" s="2">
+        <v>332.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B168" s="2">
+        <v>396.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B169" s="2">
+        <v>231.1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" s="2">
+        <v>250.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B171" s="2">
+        <v>197.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B172" s="2">
+        <v>226.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B173" s="2">
+        <v>332.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B174" s="2">
+        <v>365.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B175" s="2">
+        <v>251.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B176" s="2">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B177" s="2">
+        <v>230.9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B178" s="2">
+        <v>190.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B179" s="2">
+        <v>326.39999999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B180" s="2">
+        <v>309.60000000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B181" s="2">
+        <v>347.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B182" s="2">
+        <v>264.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B183" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B184" s="2">
+        <v>242.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B185" s="2">
+        <v>307.10000000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B186" s="2">
+        <v>195.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B187" s="2">
+        <v>266.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B188" s="2">
+        <v>354.8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B189" s="2">
+        <v>307.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B190" s="2">
+        <v>284.10000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B191" s="2">
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B192" s="2">
+        <v>292.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B193" s="2">
+        <v>256.39999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B194" s="2">
+        <v>189.7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B195" s="2">
+        <v>310.7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B196" s="2">
+        <v>364.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B197" s="2">
+        <v>269.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B198" s="2">
+        <v>218.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B199" s="2">
+        <v>255.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B200" s="2">
+        <v>331.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B201" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B202" s="2">
+        <v>321.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B203" s="2">
+        <v>359.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B204" s="2">
+        <v>340.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B205" s="2">
+        <v>370.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B206" s="2">
+        <v>237.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B207" s="2">
+        <v>339.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B208" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B209" s="2">
+        <v>405.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B210" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B211" s="2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B212" s="2">
+        <v>259.39999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B213" s="2">
+        <v>293.39999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B214" s="2">
+        <v>292.3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B215" s="2">
+        <v>324.89999999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B216" s="2">
+        <v>303.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B217" s="2">
+        <v>295.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B218" s="2">
+        <v>329.8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B219" s="2">
+        <v>303.10000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B220" s="2">
+        <v>238.9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B221" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B222" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B223" s="2">
+        <v>433.4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B224" s="2">
+        <v>424.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B225" s="2">
+        <v>305.2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B226" s="2">
+        <v>344.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B227" s="2">
+        <v>197.7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B228" s="2">
+        <v>309.10000000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B229" s="2">
+        <v>422.8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B230" s="2">
+        <v>454.8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B231" s="2">
+        <v>405.1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B232" s="2">
+        <v>286.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B233" s="2">
+        <v>393.4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B234" s="2">
+        <v>443.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B235" s="2">
+        <v>447.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B236" s="2">
+        <v>421.1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B237" s="2">
+        <v>441.6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B238" s="2">
+        <v>413.9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B239" s="2">
+        <v>415.9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B240" s="2">
+        <v>292.89999999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B241" s="2">
+        <v>305.10000000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B242" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B243" s="2">
+        <v>425.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B244" s="2">
+        <v>437.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B245" s="2">
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B246" s="2">
+        <v>284.39999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B247" s="2">
+        <v>384.1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B248" s="2">
+        <v>425.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B249" s="2">
+        <v>284.10000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B250" s="2">
+        <v>273.60000000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B251" s="2">
+        <v>435.2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B252" s="2">
+        <v>446.4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B253" s="2">
+        <v>395.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B254" s="2">
+        <v>412.6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B255" s="2">
+        <v>405.1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B256" s="2">
+        <v>309.39999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B257" s="2">
+        <v>316.2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B258" s="2">
+        <v>433.6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B259" s="2">
+        <v>440.8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B260" s="2">
+        <v>434.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B261" s="2">
+        <v>408.6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B262" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B263" s="2">
+        <v>415.1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B264" s="2">
+        <v>369.4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B265" s="2">
+        <v>204.7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B266" s="2">
+        <v>278.2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B267" s="2">
+        <v>188.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B268" s="2">
+        <v>245.3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B269" s="2">
+        <v>216.6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B270" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B271" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B272" s="2">
+        <v>339.4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B273" s="2">
+        <v>403.8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B274" s="2">
+        <v>384.1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B275" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276" s="2">
+        <v>418.3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" s="2">
+        <v>401.1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" s="2">
+        <v>433.2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" s="2">
+        <v>274.3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" s="2">
+        <v>263.2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B281" s="2">
+        <v>346.9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" s="2">
+        <v>276.60000000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B283" s="2">
+        <v>266.89999999999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" s="2">
+        <v>289.8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" s="2">
+        <v>223.1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" s="2">
+        <v>412.9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" s="2">
+        <v>315.7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288" s="2">
+        <v>293.39999999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="2">
+        <v>213.4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B290" s="2">
+        <v>235.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B291" s="2">
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B292" s="2">
+        <v>265.8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B293" s="2">
+        <v>202.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B294" s="2">
+        <v>315.60000000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B295" s="2">
+        <v>385.6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B296" s="2">
+        <v>389.6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B297" s="2">
+        <v>261.89999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B298" s="2">
+        <v>322.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B299" s="2">
+        <v>345.7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B300" s="2">
+        <v>288.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B301" s="2">
+        <v>315.10000000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B302" s="2">
+        <v>240.3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B303" s="2">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" s="2">
+        <v>290.3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
-        <v>5610</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
+      <c r="B305" s="2">
+        <v>337.6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" s="2">
+        <v>263.3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" s="2">
+        <v>360.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" s="2">
+        <v>391.1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" s="2">
+        <v>382.8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" s="2">
+        <v>380.3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" s="2">
+        <v>287.8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" s="2">
+        <v>363.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" s="2">
+        <v>315.60000000000002</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" s="2">
+        <v>312.7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" s="2">
+        <v>355.7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" s="2">
+        <v>346.8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" s="2">
+        <v>202.6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" s="2">
+        <v>325.3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" s="2">
+        <v>195.9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" s="2">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" s="2">
+        <v>361.3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" s="2">
+        <v>368.6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
-      <formula>$E$17</formula>
+  <conditionalFormatting sqref="B2:B32">
+    <cfRule type="cellIs" dxfId="48" priority="41" operator="greaterThan">
+      <formula>$E$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>$E$17</formula>
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="lessThan">
+      <formula>$E$26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B31">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>$E$17</formula>
+  <conditionalFormatting sqref="B33:B63">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
+      <formula>$E$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>$E$17</formula>
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="greaterThan">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:B93">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="lessThan">
+      <formula>$E$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="greaterThan">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94:B124">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
+      <formula>$E$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125:B154">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="lessThan">
+      <formula>$E$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:B185">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
+      <formula>$E$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B186:B216">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+      <formula>$E$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B217:B244">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>$E$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B245:B275">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>$E$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B276:B305">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>$E$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B306:B324">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$E$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>$E$9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
